--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc205_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc205_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -570,10 +594,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -617,28 +641,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="3">
+      <c r="A17" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B17" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="3">
+      <c r="C17" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="3">
+      <c r="D17" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F17" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="3">
+      <c r="G17" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="3">
+      <c r="H17" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -663,28 +687,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="D19" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="3">
+      <c r="I19" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1062,10 +1086,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1109,28 +1133,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="3">
+      <c r="A34" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="3">
+      <c r="B34" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="3">
+      <c r="C34" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D34" t="s" s="3">
+      <c r="D34" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="3">
+      <c r="E34" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="3">
+      <c r="F34" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="3">
+      <c r="G34" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="3">
+      <c r="H34" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1155,28 +1179,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="3">
+      <c r="B36" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="3">
+      <c r="C36" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="3">
+      <c r="D36" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="3">
+      <c r="E36" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="3">
+      <c r="F36" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="3">
+      <c r="G36" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="3">
+      <c r="H36" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="3">
+      <c r="I36" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1554,10 +1578,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1601,28 +1625,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="3">
+      <c r="A51" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="3">
+      <c r="B51" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="3">
+      <c r="C51" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D51" t="s" s="3">
+      <c r="D51" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="3">
+      <c r="F51" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="3">
+      <c r="G51" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="3">
+      <c r="H51" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1647,28 +1671,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="3">
+      <c r="D53" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="3">
+      <c r="I53" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1901,10 +1925,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="K61" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1948,28 +1972,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="3">
+      <c r="A63" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="3">
+      <c r="B63" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="3">
+      <c r="C63" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D63" t="s" s="3">
+      <c r="D63" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="3">
+      <c r="E63" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="3">
+      <c r="F63" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="3">
+      <c r="G63" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="3">
+      <c r="H63" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1994,28 +2018,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="3">
+      <c r="B65" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="3">
+      <c r="C65" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="3">
+      <c r="D65" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="3">
+      <c r="E65" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="3">
+      <c r="F65" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="3">
+      <c r="G65" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="3">
+      <c r="H65" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="3">
+      <c r="I65" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2451,10 +2475,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J80" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="K80" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2498,28 +2522,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="3">
+      <c r="A82" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="3">
+      <c r="C82" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D82" t="s" s="3">
+      <c r="D82" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2544,28 +2568,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="3">
+      <c r="B84" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="3">
+      <c r="C84" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="3">
+      <c r="D84" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="3">
+      <c r="E84" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="3">
+      <c r="F84" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="3">
+      <c r="G84" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="3">
+      <c r="H84" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="3">
+      <c r="I84" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3001,10 +3025,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="J99" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K99" s="3" t="s">
+      <c r="K99" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3048,28 +3072,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="3">
+      <c r="A101" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3094,28 +3118,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="3">
+      <c r="B103" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="3">
+      <c r="C103" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="3">
+      <c r="D103" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="3">
+      <c r="F103" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="3">
+      <c r="G103" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="3">
+      <c r="H103" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="3">
+      <c r="I103" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3435,10 +3459,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="3" t="s">
+      <c r="J114" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K114" s="3" t="s">
+      <c r="K114" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3482,28 +3506,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="3">
+      <c r="A116" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="3">
+      <c r="B116" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="3">
+      <c r="C116" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D116" t="s" s="3">
+      <c r="D116" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="3">
+      <c r="E116" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="3">
+      <c r="F116" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="3">
+      <c r="G116" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="3">
+      <c r="H116" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3528,28 +3552,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="3">
+      <c r="B118" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="3">
+      <c r="C118" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="3">
+      <c r="D118" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="3">
+      <c r="E118" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="3">
+      <c r="F118" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="3">
+      <c r="G118" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="3">
+      <c r="H118" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="3">
+      <c r="I118" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3782,10 +3806,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="3" t="s">
+      <c r="J126" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K126" s="3" t="s">
+      <c r="K126" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3829,28 +3853,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="3">
+      <c r="A128" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="3">
+      <c r="B128" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="3">
+      <c r="C128" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D128" t="s" s="3">
+      <c r="D128" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="3">
+      <c r="E128" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="3">
+      <c r="F128" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="3">
+      <c r="G128" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="3">
+      <c r="H128" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3875,28 +3899,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="3">
+      <c r="C130" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="3">
+      <c r="D130" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="3">
+      <c r="I130" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4158,10 +4182,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="3" t="s">
+      <c r="J139" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K139" s="3" t="s">
+      <c r="K139" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4205,28 +4229,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="3">
+      <c r="A141" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="3">
+      <c r="B141" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="3">
+      <c r="C141" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D141" t="s" s="3">
+      <c r="D141" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="3">
+      <c r="E141" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="3">
+      <c r="F141" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="3">
+      <c r="G141" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="3">
+      <c r="H141" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4251,28 +4275,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="3">
+      <c r="B143" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="3">
+      <c r="C143" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="3">
+      <c r="D143" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="3">
+      <c r="F143" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="3">
+      <c r="G143" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="3">
+      <c r="H143" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="3">
+      <c r="I143" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4447,10 +4471,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="3" t="s">
+      <c r="J149" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="3" t="s">
+      <c r="K149" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4494,28 +4518,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="3">
+      <c r="A151" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="3">
+      <c r="B151" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="3">
+      <c r="C151" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D151" t="s" s="3">
+      <c r="D151" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="3">
+      <c r="E151" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="3">
+      <c r="F151" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="3">
+      <c r="G151" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="3">
+      <c r="H151" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4540,28 +4564,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="3">
+      <c r="B153" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="3">
+      <c r="C153" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="3">
+      <c r="D153" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="3">
+      <c r="E153" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="3">
+      <c r="F153" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="3">
+      <c r="G153" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="3">
+      <c r="H153" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="3">
+      <c r="I153" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4649,10 +4673,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="3" t="s">
+      <c r="J156" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="3" t="s">
+      <c r="K156" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
